--- a/material/translation/scripts/MOR_ro_en_es_sl_pt_fr_verified_RO.xlsx
+++ b/material/translation/scripts/MOR_ro_en_es_sl_pt_fr_verified_RO.xlsx
@@ -1,67 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\git\MOR\material\translation\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6AF47-42F3-436E-A8AF-F7EB366D0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BirthEvidence" sheetId="2" r:id="rId1"/>
-    <sheet name="MarriageEvidence" sheetId="10" r:id="rId2"/>
-    <sheet name="CountryEnum" sheetId="3" r:id="rId3"/>
-    <sheet name="GUI" sheetId="4" r:id="rId4"/>
-    <sheet name="Identifier" sheetId="5" r:id="rId5"/>
-    <sheet name="LangEnum" sheetId="7" r:id="rId6"/>
-    <sheet name="Jurisdiction" sheetId="6" r:id="rId7"/>
-    <sheet name="UDT" sheetId="16" r:id="rId8"/>
-    <sheet name="PublicOrganisation" sheetId="15" r:id="rId9"/>
-    <sheet name="PersonMaritalStatusEnum" sheetId="14" r:id="rId10"/>
-    <sheet name="PersonGenderEnum" sheetId="13" r:id="rId11"/>
-    <sheet name="Person" sheetId="12" r:id="rId12"/>
-    <sheet name="NUTSEnum" sheetId="11" r:id="rId13"/>
-    <sheet name="LocationAddress" sheetId="9" r:id="rId14"/>
+    <sheet name="DomicileRegistrationEvidence" sheetId="17" r:id="rId2"/>
+    <sheet name="MarriageEvidence" sheetId="10" r:id="rId3"/>
+    <sheet name="CountryEnum" sheetId="3" r:id="rId4"/>
+    <sheet name="GUI" sheetId="4" r:id="rId5"/>
+    <sheet name="Identifier" sheetId="5" r:id="rId6"/>
+    <sheet name="LangEnum" sheetId="7" r:id="rId7"/>
+    <sheet name="Jurisdiction" sheetId="6" r:id="rId8"/>
+    <sheet name="UDT" sheetId="16" r:id="rId9"/>
+    <sheet name="PublicOrganisation" sheetId="15" r:id="rId10"/>
+    <sheet name="PersonMaritalStatusEnum" sheetId="14" r:id="rId11"/>
+    <sheet name="PersonGenderEnum" sheetId="13" r:id="rId12"/>
+    <sheet name="Person" sheetId="12" r:id="rId13"/>
+    <sheet name="NUTSEnum" sheetId="11" r:id="rId14"/>
+    <sheet name="LocationAddress" sheetId="9" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="2" hidden="1">CountryEnum!$A$1:$AC$285</definedName>
-    <definedName name="DatosExternos_1" localSheetId="3" hidden="1">GUI!$A$1:$AC$32</definedName>
-    <definedName name="DatosExternos_1" localSheetId="4" hidden="1">Identifier!$A$1:$AC$7</definedName>
-    <definedName name="DatosExternos_1" localSheetId="6" hidden="1">Jurisdiction!$A$1:$AC$4</definedName>
-    <definedName name="DatosExternos_1" localSheetId="13" hidden="1">LocationAddress!$A$1:$AC$11</definedName>
-    <definedName name="DatosExternos_2" localSheetId="5" hidden="1">LangEnum!$A$1:$AC$8</definedName>
-    <definedName name="DatosExternos_2" localSheetId="1" hidden="1">MarriageEvidence!$A$1:$AC$19</definedName>
-    <definedName name="DatosExternos_3" localSheetId="12" hidden="1">NUTSEnum!$A$1:$AC$29</definedName>
-    <definedName name="DatosExternos_4" localSheetId="11" hidden="1">Person!$A$1:$AC$13</definedName>
-    <definedName name="DatosExternos_5" localSheetId="10" hidden="1">PersonGenderEnum!$A$1:$AC$7</definedName>
-    <definedName name="DatosExternos_6" localSheetId="9" hidden="1">PersonMaritalStatusEnum!$A$1:$AC$10</definedName>
-    <definedName name="DatosExternos_7" localSheetId="8" hidden="1">PublicOrganisation!$A$1:$AC$5</definedName>
+    <definedName name="DatosExternos_1" localSheetId="3" hidden="1">'CountryEnum'!$A$1:$AC$285</definedName>
+    <definedName name="DatosExternos_1" localSheetId="4" hidden="1">GUI!$A$1:$AC$32</definedName>
+    <definedName name="DatosExternos_1" localSheetId="5" hidden="1">Identifier!$A$1:$AC$7</definedName>
+    <definedName name="DatosExternos_1" localSheetId="7" hidden="1">Jurisdiction!$A$1:$AC$4</definedName>
+    <definedName name="DatosExternos_1" localSheetId="14" hidden="1">LocationAddress!$A$1:$AC$11</definedName>
+    <definedName name="DatosExternos_2" localSheetId="6" hidden="1">LangEnum!$A$1:$AC$8</definedName>
+    <definedName name="DatosExternos_2" localSheetId="2" hidden="1">MarriageEvidence!$A$1:$AC$19</definedName>
+    <definedName name="DatosExternos_3" localSheetId="13" hidden="1">NUTSEnum!$A$1:$AC$29</definedName>
+    <definedName name="DatosExternos_4" localSheetId="12" hidden="1">Person!$A$1:$AC$13</definedName>
+    <definedName name="DatosExternos_5" localSheetId="11" hidden="1">PersonGenderEnum!$A$1:$AC$7</definedName>
+    <definedName name="DatosExternos_6" localSheetId="10" hidden="1">PersonMaritalStatusEnum!$A$1:$AC$10</definedName>
+    <definedName name="DatosExternos_7" localSheetId="9" hidden="1">PublicOrganisation!$A$1:$AC$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9505" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9590" uniqueCount="3208">
   <si>
     <t>Term URI</t>
   </si>
@@ -9584,13 +9576,115 @@
   </si>
   <si>
     <t>Persoană divorțată</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence</t>
+  </si>
+  <si>
+    <t>Domicile Registration evidence</t>
+  </si>
+  <si>
+    <t>Official document or data proving the registration of a domicile.</t>
+  </si>
+  <si>
+    <t>Prueba de Empadronamiento</t>
+  </si>
+  <si>
+    <t>Información del empadronamiento de una persona.</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/Identifier</t>
+  </si>
+  <si>
+    <t>An unambiguous reference to the Domicile Registration Evidence.</t>
+  </si>
+  <si>
+    <t>Una referencia inequívoca a la prueba de registro de empadronamiento.</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/IssueDate</t>
+  </si>
+  <si>
+    <t>The most recent date on which the Domicile Registration Evidence instance was issued.</t>
+  </si>
+  <si>
+    <t>Fecha más reciente en la que se emitió la prueba de empadronamiento.</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/IssuingAuthority</t>
+  </si>
+  <si>
+    <t>A Public Organisation with official authority in charge of issuing the Domicile Registration Evidence.</t>
+  </si>
+  <si>
+    <t>Organización pública con competencias para emitir legalmente la prueba de empadronamiento.</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/IssuingPlace</t>
+  </si>
+  <si>
+    <t>The Location where the Domicile Registration Evidence was issued.</t>
+  </si>
+  <si>
+    <t>Ubicación donde se emitió la prueba de empadronamiento.</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/IssuingPlace/AdminUnitL2</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/IssuingPlace/AdminUnitL1</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/CertifiesDomicileRegistration</t>
+  </si>
+  <si>
+    <t>Certifies domicile registration</t>
+  </si>
+  <si>
+    <t>Attesting in a formal way the domicile registration.</t>
+  </si>
+  <si>
+    <t>Certifica el empadronamiento</t>
+  </si>
+  <si>
+    <t>Certificación del registro de empadronamiento.</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/CertifiesDomicileRegistration/Inhabitant</t>
+  </si>
+  <si>
+    <t>Inhabitant of the registered domicile</t>
+  </si>
+  <si>
+    <t>Person living in the residence or domicile</t>
+  </si>
+  <si>
+    <t>Persona empadronada</t>
+  </si>
+  <si>
+    <t>Datos de la persona que figura empadronada</t>
+  </si>
+  <si>
+    <t>DomicileRegistrationEvidence/CertifiesDomicileRegistration/Domicile</t>
+  </si>
+  <si>
+    <t>Address of the registered domicile</t>
+  </si>
+  <si>
+    <t>Current domicilie inhabitated by the parson</t>
+  </si>
+  <si>
+    <t>Dirección de empadronamiento</t>
+  </si>
+  <si>
+    <t>Dirección de la vivienda en la que la persona se encuentra empadronada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9598,8 +9692,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9612,8 +9718,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -9621,11 +9733,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9D08E"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA9D08E"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA9D08E"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9D08E"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9636,6 +9834,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10642,532 +10877,532 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BirthEvidence" displayName="BirthEvidence" ref="A1:AC14" totalsRowShown="0">
-  <autoFilter ref="A1:AC14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="BirthEvidence" displayName="BirthEvidence" ref="A1:AC14" totalsRowShown="0">
+  <autoFilter ref="A1:AC14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="328"/>
-    <tableColumn id="2" name="Origin" dataDxfId="327"/>
-    <tableColumn id="3" name="Type" dataDxfId="326"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="325"/>
-    <tableColumn id="5" name="Comments" dataDxfId="324"/>
-    <tableColumn id="26" name="Label_ro" dataDxfId="323"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="322"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="321"/>
-    <tableColumn id="28" name="Verified_ro" dataDxfId="320"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="319"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="318"/>
-    <tableColumn id="8" name="Example_en"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="317"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="316"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="315"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="314"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="313"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="312"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="311"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="310"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="309"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="308"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="307"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="306"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Term URI" dataDxfId="328"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Origin" dataDxfId="327"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="326"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cardinality" dataDxfId="325"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comments" dataDxfId="324"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Label_ro" dataDxfId="323"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Description_ro" dataDxfId="322"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Example_ro" dataDxfId="321"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Verified_ro" dataDxfId="320"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Label_en" dataDxfId="319"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description_en" dataDxfId="318"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Example_en"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Label_es" dataDxfId="317"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Description_es" dataDxfId="316"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Example_es" dataDxfId="315"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Label_sl" dataDxfId="314"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Description_sl" dataDxfId="313"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Example_sl" dataDxfId="312"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Label_pt" dataDxfId="311"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Description_pt" dataDxfId="310"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Example_pt" dataDxfId="309"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Label_fr" dataDxfId="308"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Description_fr" dataDxfId="307"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Example_fr" dataDxfId="306"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="PersonMaritalStatusEnum" displayName="PersonMaritalStatusEnum" ref="A1:AC10" totalsRowShown="0">
-  <autoFilter ref="A1:AC10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="PersonMaritalStatusEnum" displayName="PersonMaritalStatusEnum" ref="A1:AC10" totalsRowShown="0">
+  <autoFilter ref="A1:AC10" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="116"/>
-    <tableColumn id="2" name="Origin" dataDxfId="115"/>
-    <tableColumn id="3" name="Type" dataDxfId="114"/>
-    <tableColumn id="4" name="Cardinality"/>
-    <tableColumn id="5" name="Comments" dataDxfId="113"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="112"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="111"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="110"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="109"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="108"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="107"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="106"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="105"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="104"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="103"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="102"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="101"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="100"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="99"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="98"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="97"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="96"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="95"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="94"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Term URI" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Origin" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Type" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Cardinality"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Comments" dataDxfId="113"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0900-00001C000000}" name="Label_ro" dataDxfId="112"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0900-00001B000000}" name="Description_ro" dataDxfId="111"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0900-00001D000000}" name="Example_ro" dataDxfId="110"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0900-00001A000000}" name="Verified_ro" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Label_en" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Description_en" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Example_en" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="Label_es" dataDxfId="105"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="Description_es" dataDxfId="104"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Example_es" dataDxfId="103"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="Label_sl" dataDxfId="102"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Description_sl" dataDxfId="101"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="Example_sl" dataDxfId="100"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="Label_pt" dataDxfId="99"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="Description_pt" dataDxfId="98"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="Example_pt" dataDxfId="97"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="Label_fr" dataDxfId="96"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0900-000017000000}" name="Description_fr" dataDxfId="95"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0900-000018000000}" name="Example_fr" dataDxfId="94"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0900-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="PersonGenderEnum" displayName="PersonGenderEnum" ref="A1:AC7" totalsRowShown="0">
-  <autoFilter ref="A1:AC7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="PersonGenderEnum" displayName="PersonGenderEnum" ref="A1:AC7" totalsRowShown="0">
+  <autoFilter ref="A1:AC7" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="93"/>
-    <tableColumn id="2" name="Origin" dataDxfId="92"/>
-    <tableColumn id="3" name="Type" dataDxfId="91"/>
-    <tableColumn id="4" name="Cardinality"/>
-    <tableColumn id="5" name="Comments" dataDxfId="90"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="89"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="88"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="87"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="86"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="85"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="84"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="83"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="82"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="81"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="80"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="79"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="78"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="77"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="76"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="75"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="74"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="73"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="72"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="71"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Term URI" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Origin" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Type" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Cardinality"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Comments" dataDxfId="90"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="Label_ro" dataDxfId="89"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="Description_ro" dataDxfId="88"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="Example_ro" dataDxfId="87"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Verified_ro" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Label_en" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Description_en" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Example_en" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Label_es" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="Description_es" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Example_es" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="Label_sl" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Description_sl" dataDxfId="78"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Example_sl" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="Label_pt" dataDxfId="76"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="Description_pt" dataDxfId="75"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="Example_pt" dataDxfId="74"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="Label_fr" dataDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="Description_fr" dataDxfId="72"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="Example_fr" dataDxfId="71"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Person" displayName="Person" ref="A1:AC13" totalsRowShown="0">
-  <autoFilter ref="A1:AC13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Person" displayName="Person" ref="A1:AC13" totalsRowShown="0">
+  <autoFilter ref="A1:AC13" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="70"/>
-    <tableColumn id="2" name="Origin" dataDxfId="69"/>
-    <tableColumn id="3" name="Type" dataDxfId="68"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="67"/>
-    <tableColumn id="5" name="Comments" dataDxfId="66"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="65"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="64"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="63"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="62"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="61"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="60"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="59"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="58"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="57"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="56"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="55"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="54"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="53"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="52"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="51"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="50"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="49"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="48"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="47"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Term URI" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Origin" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Type" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Cardinality" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Comments" dataDxfId="66"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0B00-00001C000000}" name="Label_ro" dataDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0B00-00001B000000}" name="Description_ro" dataDxfId="64"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0B00-00001D000000}" name="Example_ro" dataDxfId="63"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0B00-00001A000000}" name="Verified_ro" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Label_en" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Description_en" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Example_en" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="Label_es" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="Description_es" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="Example_es" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="Label_sl" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="Description_sl" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="Example_sl" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="Label_pt" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="Description_pt" dataDxfId="51"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0B00-000014000000}" name="Example_pt" dataDxfId="50"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="Label_fr" dataDxfId="49"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0B00-000017000000}" name="Description_fr" dataDxfId="48"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0B00-000018000000}" name="Example_fr" dataDxfId="47"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0B00-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="NUTSEnum" displayName="NUTSEnum" ref="A1:AC29" totalsRowShown="0">
-  <autoFilter ref="A1:AC29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="NUTSEnum" displayName="NUTSEnum" ref="A1:AC29" totalsRowShown="0">
+  <autoFilter ref="A1:AC29" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="46"/>
-    <tableColumn id="2" name="Origin" dataDxfId="45"/>
-    <tableColumn id="3" name="Type" dataDxfId="44"/>
-    <tableColumn id="4" name="Cardinality"/>
-    <tableColumn id="5" name="Comments" dataDxfId="43"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="42"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="41"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="40"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="39"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="38"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="37"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="36"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="35"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="34"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="33"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="32"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="31"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="30"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="29"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="28"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="27"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="26"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="25"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="24"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Term URI" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Origin" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Type" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Cardinality"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Comments" dataDxfId="43"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0C00-00001C000000}" name="Label_ro" dataDxfId="42"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0C00-00001B000000}" name="Description_ro" dataDxfId="41"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0C00-00001D000000}" name="Example_ro" dataDxfId="40"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0C00-00001A000000}" name="Verified_ro" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Label_en" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Description_en" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Example_en" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="Label_es" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name="Description_es" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="Example_es" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" name="Label_sl" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" name="Description_sl" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="Example_sl" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="Label_pt" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" name="Description_pt" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0C00-000014000000}" name="Example_pt" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="Label_fr" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0C00-000017000000}" name="Description_fr" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0C00-000018000000}" name="Example_fr" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0C00-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="LocationAddress" displayName="LocationAddress" ref="A1:AC11" totalsRowShown="0">
-  <autoFilter ref="A1:AC11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="LocationAddress" displayName="LocationAddress" ref="A1:AC11" totalsRowShown="0">
+  <autoFilter ref="A1:AC11" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="23"/>
-    <tableColumn id="2" name="Origin" dataDxfId="22"/>
-    <tableColumn id="3" name="Type" dataDxfId="21"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="20"/>
-    <tableColumn id="5" name="Comments" dataDxfId="19"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="18"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="17"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="16"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="15"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="14"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="13"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="12"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="11"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="10"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="9"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="8"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="7"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="6"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="5"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="4"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="3"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="2"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="1"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="0"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Term URI" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Origin" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Type" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Cardinality" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Comments" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" name="Label_ro" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" name="Description_ro" dataDxfId="17"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" name="Example_ro" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" name="Verified_ro" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Label_en" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Description_en" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Example_en" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="Label_es" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0D00-00000B000000}" name="Description_es" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="Example_es" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="Label_sl" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="Description_sl" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="Example_sl" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="Label_pt" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="Description_pt" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0D00-000014000000}" name="Example_pt" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="Label_fr" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0D00-000017000000}" name="Description_fr" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0D00-000018000000}" name="Example_fr" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="MarriageEvidence" displayName="MarriageEvidence" ref="A1:AC19" totalsRowShown="0">
-  <autoFilter ref="A1:AC19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="MarriageEvidence" displayName="MarriageEvidence" ref="A1:AC19" totalsRowShown="0">
+  <autoFilter ref="A1:AC19" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="305"/>
-    <tableColumn id="2" name="Origin" dataDxfId="304"/>
-    <tableColumn id="3" name="Type" dataDxfId="303"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="302"/>
-    <tableColumn id="5" name="Comments" dataDxfId="301"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="300"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="299"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="298"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="297"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="296"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="295"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="294"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="293"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="292"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="291"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="290"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="289"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="288"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="287"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="286"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="285"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="284"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="283"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="282"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Term URI" dataDxfId="305"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Origin" dataDxfId="304"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="303"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Cardinality" dataDxfId="302"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Comments" dataDxfId="301"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Label_ro" dataDxfId="300"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Description_ro" dataDxfId="299"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Example_ro" dataDxfId="298"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Verified_ro" dataDxfId="297"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Label_en" dataDxfId="296"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Description_en" dataDxfId="295"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Example_en" dataDxfId="294"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Label_es" dataDxfId="293"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Description_es" dataDxfId="292"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Example_es" dataDxfId="291"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Label_sl" dataDxfId="290"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Description_sl" dataDxfId="289"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Example_sl" dataDxfId="288"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Label_pt" dataDxfId="287"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Description_pt" dataDxfId="286"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Example_pt" dataDxfId="285"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Label_fr" dataDxfId="284"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Description_fr" dataDxfId="283"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Example_fr" dataDxfId="282"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CountryEnum" displayName="CountryEnum" ref="A1:AC285" totalsRowShown="0">
-  <autoFilter ref="A1:AC285"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="CountryEnum" displayName="CountryEnum" ref="A1:AC285" totalsRowShown="0">
+  <autoFilter ref="A1:AC285" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="281"/>
-    <tableColumn id="2" name="Origin" dataDxfId="280"/>
-    <tableColumn id="3" name="Type" dataDxfId="279"/>
-    <tableColumn id="4" name="Cardinality"/>
-    <tableColumn id="5" name="Comments" dataDxfId="278"/>
-    <tableColumn id="26" name="Label_ro" dataDxfId="277"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="276"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="275"/>
-    <tableColumn id="28" name="Verified_ro" dataDxfId="274"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="273"/>
-    <tableColumn id="7" name="Description_en2" dataDxfId="272"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="271"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="270"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="269"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="268"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="267"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="266"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="265"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="264"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="263"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="262"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="261"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="260"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="259"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Term URI" dataDxfId="281"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Origin" dataDxfId="280"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="279"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Cardinality"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Comments" dataDxfId="278"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="Label_ro" dataDxfId="277"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="Description_ro" dataDxfId="276"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="Example_ro" dataDxfId="275"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="Verified_ro" dataDxfId="274"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Label_en" dataDxfId="273"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Description_en2" dataDxfId="272"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Example_en" dataDxfId="271"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Label_es" dataDxfId="270"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Description_es" dataDxfId="269"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Example_es" dataDxfId="268"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Label_sl" dataDxfId="267"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Description_sl" dataDxfId="266"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Example_sl" dataDxfId="265"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Label_pt" dataDxfId="264"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Description_pt" dataDxfId="263"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Example_pt" dataDxfId="262"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="Label_fr" dataDxfId="261"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Description_fr" dataDxfId="260"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Example_fr" dataDxfId="259"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="GUI" displayName="GUI" ref="A1:AC32" totalsRowShown="0">
-  <autoFilter ref="A1:AC32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="GUI" displayName="GUI" ref="A1:AC32" totalsRowShown="0">
+  <autoFilter ref="A1:AC32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="258"/>
-    <tableColumn id="2" name="Origin" dataDxfId="257"/>
-    <tableColumn id="3" name="Type" dataDxfId="256"/>
-    <tableColumn id="4" name="Cardinality"/>
-    <tableColumn id="5" name="Comments" dataDxfId="255"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="254"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="253"/>
-    <tableColumn id="30" name="Example_ro" dataDxfId="252"/>
-    <tableColumn id="29" name="Verified_ro" dataDxfId="251"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="250"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="249"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="248"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="247"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="246"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="245"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="244"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="243"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="242"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="241"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="240"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="239"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="238"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="237"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="236"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Term URI" dataDxfId="258"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Origin" dataDxfId="257"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Type" dataDxfId="256"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Cardinality"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Comments" dataDxfId="255"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="Label_ro" dataDxfId="254"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="Description_ro" dataDxfId="253"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="Example_ro" dataDxfId="252"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="Verified_ro" dataDxfId="251"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Label_en" dataDxfId="250"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Description_en" dataDxfId="249"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Example_en" dataDxfId="248"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Label_es" dataDxfId="247"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Description_es" dataDxfId="246"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Example_es" dataDxfId="245"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Label_sl" dataDxfId="244"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Description_sl" dataDxfId="243"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Example_sl" dataDxfId="242"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Label_pt" dataDxfId="241"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="Description_pt" dataDxfId="240"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="Example_pt" dataDxfId="239"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="Label_fr" dataDxfId="238"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="Description_fr" dataDxfId="237"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="Example_fr" dataDxfId="236"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Identifier" displayName="Identifier" ref="A1:AC7" totalsRowShown="0">
-  <autoFilter ref="A1:AC7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Identifier" displayName="Identifier" ref="A1:AC7" totalsRowShown="0">
+  <autoFilter ref="A1:AC7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="235"/>
-    <tableColumn id="2" name="Origin" dataDxfId="234"/>
-    <tableColumn id="3" name="Type" dataDxfId="233"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="232"/>
-    <tableColumn id="5" name="Comments" dataDxfId="231"/>
-    <tableColumn id="27" name="Label_ro" dataDxfId="230"/>
-    <tableColumn id="26" name="Description_ro" dataDxfId="229"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="228"/>
-    <tableColumn id="28" name="Verified_ro" dataDxfId="227"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="226"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="225"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="224"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="223"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="222"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="221"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="220"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="219"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="218"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="217"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="216"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="215"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="214"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="213"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="212"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Term URI" dataDxfId="235"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Origin" dataDxfId="234"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Type" dataDxfId="233"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Cardinality" dataDxfId="232"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Comments" dataDxfId="231"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="Label_ro" dataDxfId="230"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="Description_ro" dataDxfId="229"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0400-00001D000000}" name="Example_ro" dataDxfId="228"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0400-00001C000000}" name="Verified_ro" dataDxfId="227"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Label_en" dataDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Description_en" dataDxfId="225"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Example_en" dataDxfId="224"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Label_es" dataDxfId="223"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Description_es" dataDxfId="222"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Example_es" dataDxfId="221"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Label_sl" dataDxfId="220"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Description_sl" dataDxfId="219"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Example_sl" dataDxfId="218"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Label_pt" dataDxfId="217"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="Description_pt" dataDxfId="216"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="Example_pt" dataDxfId="215"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="Label_fr" dataDxfId="214"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="Description_fr" dataDxfId="213"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="Example_fr" dataDxfId="212"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="LangEnum" displayName="LangEnum" ref="A1:AC8" totalsRowShown="0">
-  <autoFilter ref="A1:AC8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="LangEnum" displayName="LangEnum" ref="A1:AC8" totalsRowShown="0">
+  <autoFilter ref="A1:AC8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="211"/>
-    <tableColumn id="2" name="Origin" dataDxfId="210"/>
-    <tableColumn id="3" name="Type" dataDxfId="209"/>
-    <tableColumn id="4" name="Cardinality"/>
-    <tableColumn id="5" name="Comments" dataDxfId="208"/>
-    <tableColumn id="27" name="Label_ro" dataDxfId="207"/>
-    <tableColumn id="26" name="Description_ro" dataDxfId="206"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="205"/>
-    <tableColumn id="28" name="Verified_ro" dataDxfId="204"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="203"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="202"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="201"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="200"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="199"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="198"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="197"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="196"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="195"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="194"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="193"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="192"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="191"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="190"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="189"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Term URI" dataDxfId="211"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Origin" dataDxfId="210"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Type" dataDxfId="209"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Cardinality"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Comments" dataDxfId="208"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0500-00001B000000}" name="Label_ro" dataDxfId="207"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0500-00001A000000}" name="Description_ro" dataDxfId="206"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0500-00001D000000}" name="Example_ro" dataDxfId="205"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0500-00001C000000}" name="Verified_ro" dataDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Label_en" dataDxfId="203"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Description_en" dataDxfId="202"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Example_en" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Label_es" dataDxfId="200"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Description_es" dataDxfId="199"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Example_es" dataDxfId="198"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="Label_sl" dataDxfId="197"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Description_sl" dataDxfId="196"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Example_sl" dataDxfId="195"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="Label_pt" dataDxfId="194"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="Description_pt" dataDxfId="193"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0500-000014000000}" name="Example_pt" dataDxfId="192"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0500-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="Label_fr" dataDxfId="191"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="Description_fr" dataDxfId="190"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0500-000018000000}" name="Example_fr" dataDxfId="189"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0500-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Jurisdiction" displayName="Jurisdiction" ref="A1:AC4" totalsRowShown="0">
-  <autoFilter ref="A1:AC4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Jurisdiction" displayName="Jurisdiction" ref="A1:AC4" totalsRowShown="0">
+  <autoFilter ref="A1:AC4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="188"/>
-    <tableColumn id="2" name="Origin" dataDxfId="187"/>
-    <tableColumn id="3" name="Type" dataDxfId="186"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="185"/>
-    <tableColumn id="5" name="Comments" dataDxfId="184"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="183"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="182"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="181"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="180"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="179"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="178"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="177"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="176"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="175"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="174"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="173"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="172"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="171"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="170"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="169"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="168"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="167"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="166"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="165"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Term URI" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Origin" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Type" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Cardinality" dataDxfId="185"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Comments" dataDxfId="184"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" name="Label_ro" dataDxfId="183"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" name="Description_ro" dataDxfId="182"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" name="Example_ro" dataDxfId="181"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" name="Verified_ro" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Label_en" dataDxfId="179"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Description_en" dataDxfId="178"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Example_en" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Label_es" dataDxfId="176"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Description_es" dataDxfId="175"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Example_es" dataDxfId="174"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="Label_sl" dataDxfId="173"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Description_sl" dataDxfId="172"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Example_sl" dataDxfId="171"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="Label_pt" dataDxfId="170"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="Description_pt" dataDxfId="169"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" name="Example_pt" dataDxfId="168"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" name="Label_fr" dataDxfId="167"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" name="Description_fr" dataDxfId="166"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" name="Example_fr" dataDxfId="165"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="UDT" displayName="UDT" ref="A1:AC15" totalsRowShown="0">
-  <autoFilter ref="A1:AC15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="UDT" displayName="UDT" ref="A1:AC15" totalsRowShown="0">
+  <autoFilter ref="A1:AC15" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="164"/>
-    <tableColumn id="2" name="Origin" dataDxfId="163"/>
-    <tableColumn id="3" name="Type" dataDxfId="162"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="161"/>
-    <tableColumn id="5" name="Comments" dataDxfId="160"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="159"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="158"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="157"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="156"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="155"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="154"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="153"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="152"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="151"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="150"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="149"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="148"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="147"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="146"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="145"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="144"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="143"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="142"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="141"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Term URI" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Origin" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Type" dataDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Cardinality" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Comments" dataDxfId="160"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0700-00001C000000}" name="Label_ro" dataDxfId="159"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0700-00001B000000}" name="Description_ro" dataDxfId="158"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0700-00001D000000}" name="Example_ro" dataDxfId="157"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="Verified_ro" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Label_en" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Description_en" dataDxfId="154"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Example_en" dataDxfId="153"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Label_es" dataDxfId="152"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Description_es" dataDxfId="151"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Example_es" dataDxfId="150"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Label_sl" dataDxfId="149"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Description_sl" dataDxfId="148"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Example_sl" dataDxfId="147"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="Label_pt" dataDxfId="146"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="Description_pt" dataDxfId="145"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="Example_pt" dataDxfId="144"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0700-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0700-000016000000}" name="Label_fr" dataDxfId="143"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="Description_fr" dataDxfId="142"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="Example_fr" dataDxfId="141"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="PublicOrganisation" displayName="PublicOrganisation" ref="A1:AC5" totalsRowShown="0">
-  <autoFilter ref="A1:AC5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="PublicOrganisation" displayName="PublicOrganisation" ref="A1:AC5" totalsRowShown="0">
+  <autoFilter ref="A1:AC5" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Term URI" dataDxfId="140"/>
-    <tableColumn id="2" name="Origin" dataDxfId="139"/>
-    <tableColumn id="3" name="Type" dataDxfId="138"/>
-    <tableColumn id="4" name="Cardinality" dataDxfId="137"/>
-    <tableColumn id="5" name="Comments" dataDxfId="136"/>
-    <tableColumn id="28" name="Label_ro" dataDxfId="135"/>
-    <tableColumn id="27" name="Description_ro" dataDxfId="134"/>
-    <tableColumn id="29" name="Example_ro" dataDxfId="133"/>
-    <tableColumn id="26" name="Verified_ro" dataDxfId="132"/>
-    <tableColumn id="6" name="Label_en" dataDxfId="131"/>
-    <tableColumn id="7" name="Description_en" dataDxfId="130"/>
-    <tableColumn id="8" name="Example_en" dataDxfId="129"/>
-    <tableColumn id="9" name="Verified_en"/>
-    <tableColumn id="10" name="Label_es" dataDxfId="128"/>
-    <tableColumn id="11" name="Description_es" dataDxfId="127"/>
-    <tableColumn id="12" name="Example_es" dataDxfId="126"/>
-    <tableColumn id="13" name="Verified_es"/>
-    <tableColumn id="14" name="Label_sl" dataDxfId="125"/>
-    <tableColumn id="15" name="Description_sl" dataDxfId="124"/>
-    <tableColumn id="16" name="Example_sl" dataDxfId="123"/>
-    <tableColumn id="17" name="Verified_sl"/>
-    <tableColumn id="18" name="Label_pt" dataDxfId="122"/>
-    <tableColumn id="19" name="Description_pt" dataDxfId="121"/>
-    <tableColumn id="20" name="Example_pt" dataDxfId="120"/>
-    <tableColumn id="21" name="Verified_pt"/>
-    <tableColumn id="22" name="Label_fr" dataDxfId="119"/>
-    <tableColumn id="23" name="Description_fr" dataDxfId="118"/>
-    <tableColumn id="24" name="Example_fr" dataDxfId="117"/>
-    <tableColumn id="25" name="Verified_fr"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Term URI" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Origin" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Type" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Cardinality" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Comments" dataDxfId="136"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0800-00001C000000}" name="Label_ro" dataDxfId="135"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0800-00001B000000}" name="Description_ro" dataDxfId="134"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0800-00001D000000}" name="Example_ro" dataDxfId="133"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0800-00001A000000}" name="Verified_ro" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Label_en" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Description_en" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Example_en" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Verified_en"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Label_es" dataDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="Description_es" dataDxfId="127"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Example_es" dataDxfId="126"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="Verified_es"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="Label_sl" dataDxfId="125"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="Description_sl" dataDxfId="124"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="Example_sl" dataDxfId="123"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="Verified_sl"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="Label_pt" dataDxfId="122"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="Description_pt" dataDxfId="121"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0800-000014000000}" name="Example_pt" dataDxfId="120"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="Verified_pt"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="Label_fr" dataDxfId="119"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0800-000017000000}" name="Description_fr" dataDxfId="118"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0800-000018000000}" name="Example_fr" dataDxfId="117"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0800-000019000000}" name="Verified_fr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11469,14 +11704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -12736,21 +12971,447 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AC5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2838</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>2839</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2844</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3042</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2849</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
@@ -13647,26 +14308,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="112.42578125" customWidth="1"/>
     <col min="8" max="9" width="12.85546875" customWidth="1"/>
@@ -14299,27 +14961,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="149.28515625" customWidth="1"/>
     <col min="8" max="9" width="12.85546875" customWidth="1"/>
@@ -15501,21 +16164,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
@@ -17931,27 +18595,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="103.28515625" customWidth="1"/>
     <col min="8" max="9" width="12.85546875" customWidth="1"/>
@@ -18160,7 +18825,7 @@
       <c r="C3" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -18249,7 +18914,7 @@
       <c r="C4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -18338,7 +19003,7 @@
       <c r="C5" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -18427,7 +19092,7 @@
       <c r="C6" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -18516,7 +19181,7 @@
       <c r="C7" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -18605,7 +19270,7 @@
       <c r="C8" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -18694,7 +19359,7 @@
       <c r="C9" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -18783,7 +19448,7 @@
       <c r="C10" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -18872,7 +19537,7 @@
       <c r="C11" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>3063</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -18953,21 +19618,633 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDCB89-3FD5-4FF2-9438-96956EA414B1}">
+  <dimension ref="A1:AC11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" style="16"/>
+    <col min="7" max="7" width="14.42578125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="16"/>
+    <col min="10" max="10" width="35" style="16" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="16"/>
+    <col min="14" max="14" width="22.7109375" style="16" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>3061</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
+        <v>3175</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>3176</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20">
+        <v>1</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>3177</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>3178</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20">
+        <v>1</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23">
+        <v>1</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>3181</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23">
+        <v>1</v>
+      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="24">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>3183</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20">
+        <v>1</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>3184</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20">
+        <v>1</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>3186</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>3187</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="24">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>3189</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20">
+        <v>1</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>3190</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="24">
+        <v>10</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20">
+        <v>1</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="14" t="s">
+        <v>3194</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>3195</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>3196</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>3197</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="24">
+        <v>10</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18" t="s">
+        <v>3199</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>3200</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>3201</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>3202</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="25"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="14" t="s">
+        <v>3204</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>3206</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>3207</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="23">
+        <v>1</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O11:P11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -20650,21 +21927,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G283" sqref="G283"/>
+    <sheetView topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="J256" sqref="J256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
@@ -44070,21 +45348,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A2" sqref="A2:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -46809,21 +48088,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -47478,21 +48758,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -48146,21 +49427,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -48545,21 +49827,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -49922,432 +51205,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3043</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2831</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>2832</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>2833</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2835</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2836</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2837</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2838</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>2839</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>2840</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2842</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3046</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>2843</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>2844</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>3042</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>2845</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>2846</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2847</v>
-      </c>
-      <c r="S4" t="s">
-        <v>2848</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>2845</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>2849</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>2850</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>2851</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
